--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1476598.060668668</v>
+        <v>1494972.75013479</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>253.9620394059549</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.8442372525923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>33.89392690056376</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>7.634490799661917</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>230.1411690409422</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.0510189040272</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>54.460791558339</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.34256285505363</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>215.9937103329039</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>389.0396295043333</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.72101765531107</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>49.7640941139279</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.64843562452558</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>199.3668334840801</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>55.03008280521355</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>209.4552226741776</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980186034</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>102.0005969012859</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>237.4804158064615</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>155.8385935972304</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>170.5809693952292</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>182.1667637639236</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>14.73664328357187</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>164.063564612257</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>147.1163355383938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>215.9495548965046</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2425576766694</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>110.1707519847953</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2504.904000283471</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>720.4173773380891</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>720.4173773380891</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>720.4173773380891</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1859.412473230863</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.384715550547</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>1936.321828206976</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1583.553172936862</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y5" t="n">
-        <v>1859.412473230863</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
         <v>99.5995062532301</v>
@@ -4753,22 +4753,22 @@
         <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>643.7011644960776</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>416.5124000972908</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>416.5124000972908</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1563.476704221264</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>857.8982093416219</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>446.9123045520143</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.476704221264</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1563.476704221264</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>714.2693704131909</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>714.2693704131909</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>714.2693704131909</v>
+        <v>648.4453033288158</v>
       </c>
       <c r="T10" t="n">
-        <v>714.2693704131909</v>
+        <v>648.4453033288158</v>
       </c>
       <c r="U10" t="n">
-        <v>714.2693704131909</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="V10" t="n">
-        <v>714.2693704131909</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="W10" t="n">
-        <v>424.8522003762303</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X10" t="n">
-        <v>424.8522003762303</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,13 +5039,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,16 +5276,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,13 +5592,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3628.091576844582</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>4802.623829959216</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>4547.939341753329</v>
+        <v>1297.535630674993</v>
       </c>
       <c r="W19" t="n">
-        <v>4258.522171716369</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="X19" t="n">
-        <v>4030.532620818351</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y19" t="n">
-        <v>3809.740041674821</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5768,31 +5768,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>3443.999848753676</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>3751.319982033638</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>1027.850635690702</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="23">
@@ -5975,43 +5975,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,58 +6121,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T25" t="n">
         <v>4326.074044281177</v>
@@ -6184,13 +6184,13 @@
         <v>3782.260917288848</v>
       </c>
       <c r="W25" t="n">
-        <v>3492.843747251887</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294729</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,13 +6245,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>266.1532743881928</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6415,19 +6415,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1259.037062672588</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1004.352574466701</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>714.9354044297403</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X28" t="n">
-        <v>486.9458535317229</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="Y28" t="n">
-        <v>266.1532743881928</v>
+        <v>1244.231782352015</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6658,13 +6658,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>1341.503549752619</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.513998854602</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7214197110717</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>3739.626168222635</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1326.612261067772</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U34" t="n">
-        <v>1037.48362228133</v>
+        <v>4142.067212196405</v>
       </c>
       <c r="V34" t="n">
-        <v>782.7991340754431</v>
+        <v>4142.067212196405</v>
       </c>
       <c r="W34" t="n">
-        <v>493.3819640384826</v>
+        <v>4142.067212196405</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>4142.067212196405</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>3921.274633052875</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,7 +6956,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3941.006808105545</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C37" t="n">
-        <v>3772.070625177638</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>3621.953985765302</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>3474.040892182909</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>4571.437402977332</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>4343.447852079315</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y37" t="n">
-        <v>4122.655272935785</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7166,34 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>524.8904636260082</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>524.8904636260082</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>524.8904636260082</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.499100520942</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y40" t="n">
-        <v>1060.896741391251</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,7 +7445,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,22 +7646,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899127</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7731,16 +7731,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S46" t="n">
-        <v>1340.085404217832</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T46" t="n">
-        <v>1340.085404217832</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U46" t="n">
-        <v>1050.956765431391</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V46" t="n">
-        <v>796.2722772255036</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="W46" t="n">
-        <v>506.8551071885429</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="X46" t="n">
-        <v>278.8655562905255</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>3925.661817631305</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>253.7371603504748</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776733</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814685</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>38.8600230194989</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>228.5889167740518</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>52.77080983974787</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>112.2167382934143</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>77.06777566241337</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871768</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>77.83138328065138</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>48.75693659211589</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>130.6844047393606</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>50.96659166316005</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>104.0705886346538</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>130.6844047393594</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2.430003851120574</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.46831781370096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25801,7 +25801,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,10 +25834,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>9.760100492532558</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,25 +26068,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>40.67825230693387</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>141.9668913390327</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584573</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927882.589258457</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185699</v>
-      </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852507</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852504</v>
@@ -26344,16 +26344,16 @@
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357220.9938446527</v>
+        <v>-354692.6726812103</v>
       </c>
       <c r="C6" t="n">
-        <v>232746.885369892</v>
+        <v>235275.2065333342</v>
       </c>
       <c r="D6" t="n">
-        <v>232746.8853698919</v>
+        <v>235275.2065333341</v>
       </c>
       <c r="E6" t="n">
-        <v>-179250.8555306614</v>
+        <v>-177216.0362926643</v>
       </c>
       <c r="F6" t="n">
-        <v>345909.1809462347</v>
+        <v>347944.0001842314</v>
       </c>
       <c r="G6" t="n">
-        <v>345909.1809462344</v>
+        <v>347944.0001842314</v>
       </c>
       <c r="H6" t="n">
-        <v>345909.1809462345</v>
+        <v>347944.0001842315</v>
       </c>
       <c r="I6" t="n">
-        <v>345909.1809462345</v>
+        <v>347944.0001842317</v>
       </c>
       <c r="J6" t="n">
-        <v>169485.9617536415</v>
+        <v>171520.7809916388</v>
       </c>
       <c r="K6" t="n">
-        <v>345909.1809462346</v>
+        <v>347944.0001842315</v>
       </c>
       <c r="L6" t="n">
-        <v>345909.1809462345</v>
+        <v>347944.0001842315</v>
       </c>
       <c r="M6" t="n">
-        <v>211108.1657123975</v>
+        <v>213142.9849503944</v>
       </c>
       <c r="N6" t="n">
-        <v>345909.1809462344</v>
+        <v>347944.0001842317</v>
       </c>
       <c r="O6" t="n">
-        <v>345909.1809462345</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="P6" t="n">
-        <v>345909.1809462346</v>
+        <v>347944.0001842316</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>73.79021906417998</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>250.3937014034613</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>252.387947341414</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>278.8885075369291</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>135.1317227300653</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.1731486042620816</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8210826836387</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.3670925339835</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>149.2791814381036</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>24.74454051646165</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.40173229960322</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>162.381444836091</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819994</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875336976</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330535</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>349.2844000699651</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1494972.75013479</v>
+        <v>1570502.419799594</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.60909373830067</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>253.9620394059549</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>118.0087880384501</v>
       </c>
       <c r="W4" t="n">
-        <v>7.634490799661917</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>311.3126279457176</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0510189040272</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="X7" t="n">
-        <v>54.34256285505363</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>389.0396295043333</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>163.8950372953901</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>49.7640941139279</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>24.34682769251196</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.7644211441605784</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>225.2740933674324</v>
       </c>
       <c r="V19" t="n">
-        <v>199.3668334840801</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>55.03008280521355</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>57.64843562452401</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>209.4552226741776</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.0005969012859</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>171.2589951202372</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>112.8722262355888</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>182.1667637639236</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>14.73664328357096</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274077</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.063564612257</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>124.6555090189719</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>215.9495548965046</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4147,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>110.1707519847953</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>173.4405054918812</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>730.9133108563931</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1737.019148941773</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1737.019148941773</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.553390680693</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>538.7689125078493</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C4" t="n">
-        <v>369.8327295799424</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="W4" t="n">
-        <v>720.4173773380891</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="X4" t="n">
-        <v>720.4173773380891</v>
+        <v>431.3646104958056</v>
       </c>
       <c r="Y4" t="n">
-        <v>720.4173773380891</v>
+        <v>431.3646104958056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.384715550547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.321828206976</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.553172936862</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1210.087414675782</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1210.087414675782</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286581</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286581</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1970.914677487028</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1601.952160546617</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1243.686461939866</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>857.8982093416219</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>446.9123045520143</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2716929833838</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C10" t="n">
-        <v>359.2716929833838</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D10" t="n">
-        <v>359.2716929833838</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="E10" t="n">
-        <v>359.2716929833838</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="F10" t="n">
-        <v>359.2716929833838</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>648.4453033288158</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>648.4453033288158</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>359.2716929833838</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>359.2716929833838</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>359.2716929833838</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>359.2716929833838</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.2716929833838</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5039,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514081</v>
@@ -5066,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>868.4856756861151</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5494927582082</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>549.4328533458724</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634793</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>401.5197597634793</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>233.3444380832999</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5266,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5355,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5497,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5522,7 +5524,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>377.6878657662453</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V19" t="n">
-        <v>1297.535630674993</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W19" t="n">
-        <v>1008.118460638033</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X19" t="n">
-        <v>780.1289097400152</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y19" t="n">
-        <v>559.336330596485</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="20">
@@ -5729,37 +5731,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5771,28 +5773,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1027.850635690702</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C22" t="n">
         <v>972.2646934632137</v>
@@ -5905,7 +5907,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5947,13 +5949,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y22" t="n">
-        <v>1209.499100520942</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="23">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3570.689985294729</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>1440.685527502828</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288848</v>
+        <v>1186.001039296941</v>
       </c>
       <c r="W25" t="n">
-        <v>3570.689985294729</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X25" t="n">
-        <v>3570.689985294729</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y25" t="n">
-        <v>3570.689985294729</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6205,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,28 +6244,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6300,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.231782352015</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X28" t="n">
-        <v>1244.231782352015</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>1244.231782352015</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6445,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>358.1193886911142</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>211.2294411932038</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6655,16 +6657,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>1498.916270557902</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>1322.84934122136</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>4555.115143601278</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3739.626168222635</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U34" t="n">
-        <v>4142.067212196405</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>4142.067212196405</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>4142.067212196405</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>4142.067212196405</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>3921.274633052875</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6916,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7032,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>3941.006808105546</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>3772.070625177639</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>3621.953985765303</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>3474.04089218291</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>4571.437402977333</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>4343.447852079315</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>4122.655272935785</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7190,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095316</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>3158.47475800178</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M39" t="n">
-        <v>3465.794891281741</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N39" t="n">
-        <v>3795.657518945774</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O39" t="n">
-        <v>4075.197584164471</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>675.007103038344</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C40" t="n">
-        <v>675.007103038344</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D40" t="n">
-        <v>524.8904636260082</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>524.8904636260082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>524.8904636260082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>675.007103038344</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W40" t="n">
-        <v>675.007103038344</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X40" t="n">
-        <v>675.007103038344</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.007103038344</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164471</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.6350999123426</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1373.001614983184</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1373.001614983184</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1083.872976196742</v>
       </c>
       <c r="V43" t="n">
-        <v>755.183133481126</v>
+        <v>1083.872976196742</v>
       </c>
       <c r="W43" t="n">
-        <v>465.7659634441654</v>
+        <v>1083.872976196742</v>
       </c>
       <c r="X43" t="n">
-        <v>247.6350999123426</v>
+        <v>855.8834252987245</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.6350999123426</v>
+        <v>855.8834252987245</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514081</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3925.661817631305</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="C46" t="n">
-        <v>3925.661817631305</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="D46" t="n">
-        <v>3925.661817631305</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="E46" t="n">
-        <v>3777.748724048912</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048912</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368732</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H46" t="n">
         <v>3459.155393916676</v>
@@ -7816,22 +7818,22 @@
         <v>4141.002278403509</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.85945949167</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T46" t="n">
         <v>4326.074044281177</v>
@@ -7840,16 +7842,16 @@
         <v>4036.945405494735</v>
       </c>
       <c r="V46" t="n">
-        <v>3925.661817631305</v>
+        <v>3782.260917288848</v>
       </c>
       <c r="W46" t="n">
-        <v>3925.661817631305</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="X46" t="n">
-        <v>3925.661817631305</v>
+        <v>3607.068487499069</v>
       </c>
       <c r="Y46" t="n">
-        <v>3925.661817631305</v>
+        <v>3607.068487499069</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504748</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.7842838544522</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>38.8600230194989</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776745</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208058</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>124.5670006750242</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6695415024086</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>60.96325903114499</v>
       </c>
       <c r="V19" t="n">
-        <v>52.77080983974787</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>112.2167382934143</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>228.5889167740533</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>77.06777566241337</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.83138328065138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>115.2640032163538</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>53.62134222778882</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>104.0705886346538</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>130.6844047393603</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>2.430003851120574</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>237.4010000402575</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>73.26530096463138</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>9.760100492532558</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26035,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>141.9668913390327</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>113.0824928447098</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584573</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584573</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
@@ -26323,10 +26325,10 @@
         <v>469234.8716852507</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
@@ -26335,25 +26337,25 @@
         <v>469234.8716852506</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852507</v>
       </c>
       <c r="K2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="L2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="M2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="M2" t="n">
-        <v>469234.8716852505</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852506</v>
-      </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,16 +26441,16 @@
         <v>29303.54555230234</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="K4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="L4" t="n">
-        <v>29303.54555230232</v>
-      </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26479,37 +26481,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26522,19 +26524,19 @@
         <v>-354692.6726812103</v>
       </c>
       <c r="C6" t="n">
+        <v>235275.2065333341</v>
+      </c>
+      <c r="D6" t="n">
         <v>235275.2065333342</v>
-      </c>
-      <c r="D6" t="n">
-        <v>235275.2065333341</v>
       </c>
       <c r="E6" t="n">
         <v>-177216.0362926643</v>
       </c>
       <c r="F6" t="n">
-        <v>347944.0001842314</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="G6" t="n">
-        <v>347944.0001842314</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="H6" t="n">
         <v>347944.0001842315</v>
@@ -26546,22 +26548,22 @@
         <v>171520.7809916388</v>
       </c>
       <c r="K6" t="n">
-        <v>347944.0001842315</v>
+        <v>347944.0001842316</v>
       </c>
       <c r="L6" t="n">
-        <v>347944.0001842315</v>
+        <v>347944.0001842313</v>
       </c>
       <c r="M6" t="n">
-        <v>213142.9849503944</v>
+        <v>213142.9849503943</v>
       </c>
       <c r="N6" t="n">
-        <v>347944.0001842317</v>
+        <v>347944.0001842314</v>
       </c>
       <c r="O6" t="n">
-        <v>347944.0001842316</v>
+        <v>347944.0001842311</v>
       </c>
       <c r="P6" t="n">
-        <v>347944.0001842316</v>
+        <v>347944.0001842313</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26749,7 @@
         <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>257.0739478823823</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>73.79021906417998</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>134.1288552853779</v>
       </c>
       <c r="W4" t="n">
-        <v>278.8885075369291</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>43.37041367496533</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1731486042620816</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="X7" t="n">
-        <v>171.3670925339835</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>24.74454051646165</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>205.836063383079</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0.7182761106009821</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853701</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>162.381444836091</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504661</v>
@@ -35504,10 +35506,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819994</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37400,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,10 +37639,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700197</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1570502.419799594</v>
+        <v>1563485.404907882</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>97.60909373830067</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>43.54424566903386</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.0849044383765</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>118.0087880384501</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>311.3126279457176</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>73.73129007891178</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.1609600883621</v>
+        <v>83.82466560786632</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>82.51147915316609</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>163.8950372953901</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>37.83808333974917</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.34682769251196</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>192.6211591710424</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7644211441605784</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>225.2740933674324</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.562624396425115</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>57.64843562452401</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>171.2589951202372</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>27.37255160319397</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>112.8722262355888</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>126.6710779530849</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>14.73664328357096</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>14.73664328357051</v>
+        <v>228.2066444308516</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>124.6555090189719</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>173.4405054918812</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.9133108563931</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C2" t="n">
-        <v>730.9133108563931</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733119</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2653.165004483845</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2399.403219121936</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2068.340331778365</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1715.571676508251</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y2" t="n">
-        <v>1117.513150920515</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.7161456655658</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7161456655658</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="V4" t="n">
-        <v>431.3646104958056</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="W4" t="n">
-        <v>431.3646104958056</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="X4" t="n">
-        <v>431.3646104958056</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.3646104958056</v>
+        <v>520.9725150767609</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>946.7754666214607</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733124</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2567.644350963956</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2567.644350963956</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2313.882565602047</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4661,28 +4661,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>259.1560728187101</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="C10" t="n">
-        <v>210.9658229629848</v>
+        <v>559.1928012785278</v>
       </c>
       <c r="D10" t="n">
-        <v>210.9658229629848</v>
+        <v>409.076161866192</v>
       </c>
       <c r="E10" t="n">
-        <v>210.9658229629848</v>
+        <v>261.1630682837989</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9658229629848</v>
+        <v>261.1630682837989</v>
       </c>
       <c r="G10" t="n">
-        <v>210.9658229629848</v>
+        <v>92.16326802213132</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213132</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213132</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064347</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861151</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582082</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>401.5197597634793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>233.3444380832999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1304.349443112405</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>791.4353891154691</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5372,7 +5372,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1071.446671213422</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5755,13 +5755,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.685527502828</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.001039296941</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>896.58386925998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6229,22 +6229,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6259,13 +6259,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,7 +6323,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>247.3337308726216</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726216</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515098</v>
@@ -6478,7 +6478,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>506.0324822735073</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C31" t="n">
-        <v>506.0324822735073</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D31" t="n">
-        <v>506.0324822735073</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E31" t="n">
-        <v>358.1193886911142</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>211.2294411932038</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6660,13 +6660,13 @@
         <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>1116.281198561021</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>1116.281198561021</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735073</v>
+        <v>895.4886194174906</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1271.749344574921</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1271.749344574921</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3941.006808105546</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3772.070625177639</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3621.953985765303</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3474.04089218291</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014293</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014293</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014293</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4571.437402977333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4343.447852079315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4122.655272935785</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,25 +7159,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>564.1830073829216</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1484.03077229167</v>
+        <v>555.5704444251534</v>
       </c>
       <c r="W40" t="n">
-        <v>1194.613602254709</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X40" t="n">
-        <v>966.6240513566914</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y40" t="n">
-        <v>745.8314722131613</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,16 +7426,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1595.645765494011</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>1925.508393158044</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1373.001614983184</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1373.001614983184</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.872976196742</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>1083.872976196742</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.872976196742</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>855.8834252987245</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>855.8834252987245</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7672,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4326.074044281177</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>4036.945405494735</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>3782.260917288848</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>3607.068487499069</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>3607.068487499069</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>221.0467526719079</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.269243651622</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776759</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>127.646125010065</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>124.5670006750242</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>5.299650812560799</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6695415024086</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>60.96325903114499</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871781</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.5889167740533</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>115.2640032163538</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>191.2121017489008</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>53.62134222778882</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>159.8519203835061</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>82.98990566424405</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>130.6844047393603</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>237.4010000402575</v>
+        <v>23.93099889297639</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>73.26530096463138</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>113.0824928447098</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>927882.5892584573</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
   </sheetData>
@@ -26322,22 +26322,22 @@
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852507</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
+        <v>469234.8716852503</v>
+      </c>
+      <c r="J2" t="n">
         <v>469234.8716852506</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852507</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852505</v>
@@ -26349,7 +26349,7 @@
         <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="O2" t="n">
         <v>469234.8716852503</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.846656682071625e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26438,25 +26438,25 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,7 +26487,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-354692.6726812103</v>
       </c>
       <c r="C6" t="n">
-        <v>235275.2065333341</v>
+        <v>235275.2065333342</v>
       </c>
       <c r="D6" t="n">
-        <v>235275.2065333342</v>
+        <v>235275.2065333338</v>
       </c>
       <c r="E6" t="n">
-        <v>-177216.0362926643</v>
+        <v>-178190.6275523862</v>
       </c>
       <c r="F6" t="n">
-        <v>347944.0001842316</v>
+        <v>346969.4089245098</v>
       </c>
       <c r="G6" t="n">
-        <v>347944.0001842316</v>
+        <v>346969.4089245097</v>
       </c>
       <c r="H6" t="n">
-        <v>347944.0001842315</v>
+        <v>346969.4089245098</v>
       </c>
       <c r="I6" t="n">
-        <v>347944.0001842317</v>
+        <v>346969.4089245097</v>
       </c>
       <c r="J6" t="n">
-        <v>171520.7809916388</v>
+        <v>170546.189731917</v>
       </c>
       <c r="K6" t="n">
-        <v>347944.0001842316</v>
+        <v>346969.4089245099</v>
       </c>
       <c r="L6" t="n">
-        <v>347944.0001842313</v>
+        <v>346969.4089245097</v>
       </c>
       <c r="M6" t="n">
-        <v>213142.9849503943</v>
+        <v>212168.3936906727</v>
       </c>
       <c r="N6" t="n">
-        <v>347944.0001842314</v>
+        <v>346969.4089245097</v>
       </c>
       <c r="O6" t="n">
-        <v>347944.0001842311</v>
+        <v>346969.4089245097</v>
       </c>
       <c r="P6" t="n">
-        <v>347944.0001842313</v>
+        <v>346969.4089245097</v>
       </c>
     </row>
   </sheetData>
@@ -26743,10 +26743,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>257.0739478823823</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>172.904074688624</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>7.060634511642377</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>134.1288552853779</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>43.37041367496533</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>100.6844227300598</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.36203824822886</v>
+        <v>202.6983327287247</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>245.2407793169688</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.836063383079</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7182761106009821</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>7.361875848787804</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502069</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>334.7395399415897</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>555.3724419700197</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1563485.404907882</v>
+        <v>1568424.667756915</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>300.8915849827645</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>43.54424566903386</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>55.84003136202637</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.0849044383765</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>73.73129007891178</v>
+        <v>89.06935913568175</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.82466560786632</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>207.2013025968596</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>82.51147915316609</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>37.83808333974917</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>192.6211591710424</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>31.13654107019678</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.02431191417324</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>16.48334977779966</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.562624396425115</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>236.9147353558832</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>203.3618670250042</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.37255160319397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>28.33724577870906</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>126.6710779530849</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>8.576299198036995</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>42.6410840722532</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>228.2066444308516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>169.8277167599791</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>122.65197883716</v>
+        <v>192.6211591710424</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>511.3398517472591</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2653.165004483845</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2399.403219121936</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2068.340331778365</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1715.571676508251</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1342.105918247171</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.105918247171</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9725150767609</v>
+        <v>279.346854164887</v>
       </c>
       <c r="C4" t="n">
-        <v>520.9725150767609</v>
+        <v>279.346854164887</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>279.346854164887</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>279.346854164887</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>520.9725150767609</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>520.9725150767609</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>520.9725150767609</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>520.9725150767609</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>520.9725150767609</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>520.9725150767609</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9725150767609</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2567.644350963956</v>
+        <v>2552.151351916714</v>
       </c>
       <c r="T5" t="n">
-        <v>2567.644350963956</v>
+        <v>2333.516684888777</v>
       </c>
       <c r="U5" t="n">
-        <v>2313.882565602047</v>
+        <v>2079.754899526868</v>
       </c>
       <c r="V5" t="n">
-        <v>1982.819678258477</v>
+        <v>1748.692012183297</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.819678258477</v>
+        <v>1395.923356913183</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.819678258477</v>
+        <v>1022.457598652103</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>632.3182666762915</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097704</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097704</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>743.8979228366049</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186808</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785278</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>409.076161866192</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837989</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>261.1630682837989</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>92.16326802213132</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>92.16326802213132</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>92.16326802213132</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,37 +5020,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,31 +5059,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5108,25 +5108,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555215</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
         <v>1198.760773441947</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1304.349443112405</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1080.564027901911</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>791.4353891154691</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>536.7509009095822</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>247.3337308726216</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>247.3337308726216</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5311,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5375,10 +5375,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1487.780601957727</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1287.86059187328</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1287.86059187328</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>998.731953086838</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>744.0474648809511</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1003.796518881118</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>1003.796518881118</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>1003.796518881118</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,28 +6056,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>835.9030317721694</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="26">
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1093.580233175471</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>804.16306313851</v>
       </c>
       <c r="X28" t="n">
-        <v>920.3704617344999</v>
+        <v>576.1735122404926</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.7214197110717</v>
+        <v>576.1735122404926</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6451,64 +6451,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>713.8401545872508</v>
+        <v>444.8933943850831</v>
       </c>
       <c r="C31" t="n">
-        <v>713.8401545872508</v>
+        <v>275.9572114571762</v>
       </c>
       <c r="D31" t="n">
-        <v>563.7235151749151</v>
+        <v>125.8405720448405</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>1116.281198561021</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>1116.281198561021</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y31" t="n">
-        <v>895.4886194174906</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201016</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9110074201016</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E34" t="n">
-        <v>213.9110074201016</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,43 +6925,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>585.5099430858311</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>555.5704444251534</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.1532743881928</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>266.1532743881928</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
         <v>266.1532743881928</v>
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201016</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201016</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201016</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
         <v>97.21709146028584</v>
@@ -7848,10 +7848,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.269243651622</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M42" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>5.299650812560799</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5731143188404</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>98.94004048961956</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>270.0396485587913</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>30.90698584635157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>30.42394386102401</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>192.3581855871781</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>49.32261704269419</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>48.77577629882376</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.2121017489008</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>118.0967168678601</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24894,13 +24894,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>159.8519203835061</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>140.0391738201754</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>105.9743889459592</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>23.93099889297639</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>48.75693659211572</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>103.0576765518772</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584571</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.589258457</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584573</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>927882.5892584571</v>
+        <v>927882.5892584572</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>927882.5892584572</v>
+        <v>927882.5892584573</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="G2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="H2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="I2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="J2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="K2" t="n">
+        <v>469234.8716852506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="M2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="N2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="O2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="I2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852506</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>469234.8716852505</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="N2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852503</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.846656682071625e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>525160.0364768959</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
@@ -26447,16 +26447,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-354692.6726812103</v>
+        <v>-354692.6726812104</v>
       </c>
       <c r="C6" t="n">
         <v>235275.2065333342</v>
       </c>
       <c r="D6" t="n">
-        <v>235275.2065333338</v>
+        <v>235275.2065333342</v>
       </c>
       <c r="E6" t="n">
-        <v>-178190.6275523862</v>
+        <v>-177313.4954186366</v>
       </c>
       <c r="F6" t="n">
-        <v>346969.4089245098</v>
+        <v>347846.5410582594</v>
       </c>
       <c r="G6" t="n">
-        <v>346969.4089245097</v>
+        <v>347846.5410582593</v>
       </c>
       <c r="H6" t="n">
-        <v>346969.4089245098</v>
+        <v>347846.5410582594</v>
       </c>
       <c r="I6" t="n">
-        <v>346969.4089245097</v>
+        <v>347846.5410582595</v>
       </c>
       <c r="J6" t="n">
-        <v>170546.189731917</v>
+        <v>171423.3218656664</v>
       </c>
       <c r="K6" t="n">
-        <v>346969.4089245099</v>
+        <v>347846.5410582595</v>
       </c>
       <c r="L6" t="n">
-        <v>346969.4089245097</v>
+        <v>347846.5410582594</v>
       </c>
       <c r="M6" t="n">
-        <v>212168.3936906727</v>
+        <v>213045.5258244221</v>
       </c>
       <c r="N6" t="n">
-        <v>346969.4089245097</v>
+        <v>347846.5410582594</v>
       </c>
       <c r="O6" t="n">
-        <v>346969.4089245097</v>
+        <v>347846.5410582593</v>
       </c>
       <c r="P6" t="n">
-        <v>346969.4089245097</v>
+        <v>347846.5410582594</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>23.03118778159268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>172.904074688624</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>89.58101666090488</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>7.060634511642377</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>100.6844227300598</v>
+        <v>85.34635367328976</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6983327287247</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>206.5828674239353</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>245.2407793169688</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>7.361875848787804</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -29769,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382562</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36615,10 +36615,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M42" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
